--- a/Referentiedata/VERA - Referentiedata - 2022-04-01.xlsx
+++ b/Referentiedata/VERA - Referentiedata - 2022-04-01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martijn\Documents\VERA GitHub\Referentiedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1DC61-05C8-4A7F-8123-4B439B06EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ECABF-7391-4A9E-9F7A-B7E3DAC9B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8230" uniqueCount="4190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8245" uniqueCount="4198">
   <si>
     <t>Referentiedatasoort</t>
   </si>
@@ -12700,6 +12700,30 @@
   </si>
   <si>
     <t>De relatie aan wie de zekerheid op de eenheid is verleend bij een eventuele zekerheidsverpanding</t>
+  </si>
+  <si>
+    <t>RELATIESOORT</t>
+  </si>
+  <si>
+    <t>Relatiegroep</t>
+  </si>
+  <si>
+    <t>Een verzameling relaties (bijvoorbeeld een huishouden)</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Natuurlijke persoon</t>
+  </si>
+  <si>
+    <t>Een natuurlijk persoon is iemand, een mens van vlees en bloed, die rechten en plichten heeft.</t>
+  </si>
+  <si>
+    <t>Rechtspersoon</t>
+  </si>
+  <si>
+    <t>Een rechtspersoon is een juridische constructie waardoor een abstracte entiteit of organisatie op kan treden als een volwaardig en handelingsbekwaam persoon in het rechtsverkeer behept met rechten en plichten zoals een natuurlijk persoon dat kan doen.</t>
   </si>
 </sst>
 </file>
@@ -12862,7 +12886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13016,9 +13040,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -13033,6 +13054,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13430,11 +13457,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1313" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:K1313" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1313">
-    <sortCondition ref="A2:A1313"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1316" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:K1316" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{845F9FC6-EA7E-42C8-9954-6B75834B5282}" name="Referentiedatasoort" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{ABFA2115-257A-4C72-8D5D-B12F03C0BC13}" name="Sortering" dataDxfId="18"/>
@@ -13806,7 +13830,7 @@
   <sheetPr codeName="Blad1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1313"/>
+  <dimension ref="A1:K1316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38775,29 +38799,29 @@
       </c>
     </row>
     <row r="1118" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1118" s="55" t="s">
+      <c r="A1118" s="60" t="s">
         <v>1881</v>
       </c>
-      <c r="B1118" s="56"/>
-      <c r="C1118" s="56" t="s">
+      <c r="B1118" s="55"/>
+      <c r="C1118" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D1118" s="57" t="s">
+      <c r="D1118" s="56" t="s">
         <v>1882</v>
       </c>
-      <c r="E1118" s="57" t="s">
+      <c r="E1118" s="56" t="s">
         <v>4169</v>
       </c>
-      <c r="F1118" s="57"/>
-      <c r="G1118" s="57"/>
-      <c r="H1118" s="56"/>
-      <c r="I1118" s="56" t="s">
+      <c r="F1118" s="56"/>
+      <c r="G1118" s="56"/>
+      <c r="H1118" s="55"/>
+      <c r="I1118" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1118" s="56"/>
-      <c r="K1118" s="56"/>
-    </row>
-    <row r="1119" spans="1:11" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1118" s="55"/>
+      <c r="K1118" s="55"/>
+    </row>
+    <row r="1119" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1119" s="7" t="s">
         <v>1881</v>
       </c>
@@ -38844,7 +38868,7 @@
       <c r="K1120" s="7"/>
     </row>
     <row r="1121" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="7" t="s">
+      <c r="A1121" s="61" t="s">
         <v>1881</v>
       </c>
       <c r="B1121" s="7"/>
@@ -38866,7 +38890,7 @@
       <c r="J1121" s="7"/>
       <c r="K1121" s="7"/>
     </row>
-    <row r="1122" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:11" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="7" t="s">
         <v>1881</v>
       </c>
@@ -38913,27 +38937,27 @@
       <c r="K1123" s="7"/>
     </row>
     <row r="1124" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="56" t="s">
+      <c r="A1124" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1124" s="56"/>
-      <c r="C1124" s="56" t="s">
+      <c r="B1124" s="55"/>
+      <c r="C1124" s="55" t="s">
         <v>926</v>
       </c>
-      <c r="D1124" s="57" t="s">
+      <c r="D1124" s="56" t="s">
         <v>1884</v>
       </c>
-      <c r="E1124" s="57" t="s">
+      <c r="E1124" s="56" t="s">
         <v>3605</v>
       </c>
-      <c r="F1124" s="57"/>
-      <c r="G1124" s="57"/>
-      <c r="H1124" s="56"/>
-      <c r="I1124" s="56" t="s">
+      <c r="F1124" s="56"/>
+      <c r="G1124" s="56"/>
+      <c r="H1124" s="55"/>
+      <c r="I1124" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1124" s="56"/>
-      <c r="K1124" s="56"/>
+      <c r="J1124" s="55"/>
+      <c r="K1124" s="55"/>
     </row>
     <row r="1125" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1125" s="7" t="s">
@@ -39028,27 +39052,27 @@
       <c r="K1128" s="7"/>
     </row>
     <row r="1129" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="56" t="s">
+      <c r="A1129" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1129" s="56"/>
-      <c r="C1129" s="56" t="s">
+      <c r="B1129" s="55"/>
+      <c r="C1129" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="D1129" s="57" t="s">
+      <c r="D1129" s="56" t="s">
         <v>1888</v>
       </c>
-      <c r="E1129" s="57" t="s">
+      <c r="E1129" s="56" t="s">
         <v>3674</v>
       </c>
-      <c r="F1129" s="57"/>
-      <c r="G1129" s="57"/>
-      <c r="H1129" s="56"/>
-      <c r="I1129" s="56" t="s">
+      <c r="F1129" s="56"/>
+      <c r="G1129" s="56"/>
+      <c r="H1129" s="55"/>
+      <c r="I1129" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1129" s="56"/>
-      <c r="K1129" s="56"/>
+      <c r="J1129" s="55"/>
+      <c r="K1129" s="55"/>
     </row>
     <row r="1130" spans="1:11" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1130" s="7" t="s">
@@ -39281,27 +39305,27 @@
       <c r="K1139" s="7"/>
     </row>
     <row r="1140" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="56" t="s">
+      <c r="A1140" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1140" s="56"/>
-      <c r="C1140" s="56" t="s">
+      <c r="B1140" s="55"/>
+      <c r="C1140" s="55" t="s">
         <v>1275</v>
       </c>
-      <c r="D1140" s="57" t="s">
+      <c r="D1140" s="56" t="s">
         <v>1890</v>
       </c>
-      <c r="E1140" s="57" t="s">
+      <c r="E1140" s="56" t="s">
         <v>3610</v>
       </c>
-      <c r="F1140" s="57"/>
-      <c r="G1140" s="57"/>
-      <c r="H1140" s="56"/>
-      <c r="I1140" s="56" t="s">
+      <c r="F1140" s="56"/>
+      <c r="G1140" s="56"/>
+      <c r="H1140" s="55"/>
+      <c r="I1140" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1140" s="56"/>
-      <c r="K1140" s="56"/>
+      <c r="J1140" s="55"/>
+      <c r="K1140" s="55"/>
     </row>
     <row r="1141" spans="1:11" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1141" s="7" t="s">
@@ -39373,50 +39397,50 @@
       <c r="K1143" s="7"/>
     </row>
     <row r="1144" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1144" s="56" t="s">
+      <c r="A1144" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1144" s="56"/>
-      <c r="C1144" s="56" t="s">
+      <c r="B1144" s="55"/>
+      <c r="C1144" s="55" t="s">
         <v>1893</v>
       </c>
-      <c r="D1144" s="57" t="s">
+      <c r="D1144" s="56" t="s">
         <v>1894</v>
       </c>
-      <c r="E1144" s="57" t="s">
+      <c r="E1144" s="56" t="s">
         <v>4178</v>
       </c>
-      <c r="F1144" s="57"/>
-      <c r="G1144" s="57"/>
-      <c r="H1144" s="56"/>
-      <c r="I1144" s="56" t="s">
+      <c r="F1144" s="56"/>
+      <c r="G1144" s="56"/>
+      <c r="H1144" s="55"/>
+      <c r="I1144" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1144" s="56"/>
-      <c r="K1144" s="56"/>
+      <c r="J1144" s="55"/>
+      <c r="K1144" s="55"/>
     </row>
     <row r="1145" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1145" s="56" t="s">
+      <c r="A1145" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1145" s="56"/>
-      <c r="C1145" s="56" t="s">
+      <c r="B1145" s="55"/>
+      <c r="C1145" s="55" t="s">
         <v>1895</v>
       </c>
-      <c r="D1145" s="57" t="s">
+      <c r="D1145" s="56" t="s">
         <v>1896</v>
       </c>
-      <c r="E1145" s="57" t="s">
+      <c r="E1145" s="56" t="s">
         <v>3612</v>
       </c>
-      <c r="F1145" s="57"/>
-      <c r="G1145" s="57"/>
-      <c r="H1145" s="56"/>
-      <c r="I1145" s="56" t="s">
+      <c r="F1145" s="56"/>
+      <c r="G1145" s="56"/>
+      <c r="H1145" s="55"/>
+      <c r="I1145" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1145" s="56"/>
-      <c r="K1145" s="56"/>
+      <c r="J1145" s="55"/>
+      <c r="K1145" s="55"/>
     </row>
     <row r="1146" spans="1:11" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1146" s="7" t="s">
@@ -39602,10 +39626,11 @@
       <c r="J1153" s="7"/>
       <c r="K1153" s="7"/>
     </row>
-    <row r="1154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="7" t="s">
         <v>1881</v>
       </c>
+      <c r="B1154" s="7"/>
       <c r="C1154" s="7" t="s">
         <v>4179</v>
       </c>
@@ -39615,14 +39640,20 @@
       <c r="E1154" s="34" t="s">
         <v>4181</v>
       </c>
+      <c r="F1154" s="8"/>
+      <c r="G1154" s="8"/>
+      <c r="H1154" s="7"/>
       <c r="I1154" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1154" s="7"/>
+      <c r="K1154" s="7"/>
+    </row>
+    <row r="1155" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="7" t="s">
         <v>1881</v>
       </c>
+      <c r="B1155" s="7"/>
       <c r="C1155" s="7" t="s">
         <v>243</v>
       </c>
@@ -39632,14 +39663,20 @@
       <c r="E1155" s="34" t="s">
         <v>4183</v>
       </c>
+      <c r="F1155" s="8"/>
+      <c r="G1155" s="8"/>
+      <c r="H1155" s="7"/>
       <c r="I1155" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1155" s="7"/>
+      <c r="K1155" s="7"/>
+    </row>
+    <row r="1156" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="7" t="s">
         <v>1881</v>
       </c>
+      <c r="B1156" s="7"/>
       <c r="C1156" s="7" t="s">
         <v>1848</v>
       </c>
@@ -39649,9 +39686,14 @@
       <c r="E1156" s="34" t="s">
         <v>3727</v>
       </c>
+      <c r="F1156" s="8"/>
+      <c r="G1156" s="8"/>
+      <c r="H1156" s="7"/>
       <c r="I1156" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="J1156" s="7"/>
+      <c r="K1156" s="7"/>
     </row>
     <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1157" s="7" t="s">
@@ -39663,7 +39705,7 @@
       <c r="D1157" s="8" t="s">
         <v>3882</v>
       </c>
-      <c r="E1157" s="58"/>
+      <c r="E1157" s="57"/>
       <c r="I1157" s="7"/>
     </row>
     <row r="1158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -39718,27 +39760,27 @@
       </c>
     </row>
     <row r="1161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1161" s="56" t="s">
+      <c r="A1161" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1161" s="56"/>
-      <c r="C1161" s="56" t="s">
+      <c r="B1161" s="55"/>
+      <c r="C1161" s="55" t="s">
         <v>1903</v>
       </c>
-      <c r="D1161" s="57" t="s">
+      <c r="D1161" s="56" t="s">
         <v>1904</v>
       </c>
-      <c r="E1161" s="57" t="s">
+      <c r="E1161" s="56" t="s">
         <v>4184</v>
       </c>
-      <c r="F1161" s="57"/>
-      <c r="G1161" s="57"/>
-      <c r="H1161" s="56"/>
-      <c r="I1161" s="56" t="s">
+      <c r="F1161" s="56"/>
+      <c r="G1161" s="56"/>
+      <c r="H1161" s="55"/>
+      <c r="I1161" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1161" s="56"/>
-      <c r="K1161" s="56"/>
+      <c r="J1161" s="55"/>
+      <c r="K1161" s="55"/>
     </row>
     <row r="1162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1162" s="7" t="s">
@@ -39775,27 +39817,27 @@
       </c>
     </row>
     <row r="1164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1164" s="56" t="s">
+      <c r="A1164" s="55" t="s">
         <v>1881</v>
       </c>
-      <c r="B1164" s="56"/>
-      <c r="C1164" s="56" t="s">
+      <c r="B1164" s="55"/>
+      <c r="C1164" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="D1164" s="57" t="s">
+      <c r="D1164" s="56" t="s">
         <v>1901</v>
       </c>
-      <c r="E1164" s="57" t="s">
+      <c r="E1164" s="56" t="s">
         <v>4178</v>
       </c>
-      <c r="F1164" s="57"/>
-      <c r="G1164" s="57"/>
-      <c r="H1164" s="56"/>
-      <c r="I1164" s="56" t="s">
+      <c r="F1164" s="56"/>
+      <c r="G1164" s="56"/>
+      <c r="H1164" s="55"/>
+      <c r="I1164" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J1164" s="56"/>
-      <c r="K1164" s="56"/>
+      <c r="J1164" s="55"/>
+      <c r="K1164" s="55"/>
     </row>
     <row r="1165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1165" s="7" t="s">
@@ -39855,7 +39897,7 @@
       <c r="C1168" s="7" t="s">
         <v>1822</v>
       </c>
-      <c r="D1168" s="59" t="s">
+      <c r="D1168" s="58" t="s">
         <v>3602</v>
       </c>
       <c r="E1168" s="8" t="s">
@@ -39892,7 +39934,7 @@
       <c r="D1170" s="8" t="s">
         <v>4188</v>
       </c>
-      <c r="E1170" s="60" t="s">
+      <c r="E1170" s="59" t="s">
         <v>4189</v>
       </c>
       <c r="I1170" s="7" t="s">
@@ -39900,73 +39942,55 @@
       </c>
     </row>
     <row r="1171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1171" s="35" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B1171" s="13"/>
-      <c r="C1171" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1171" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="E1171" s="12" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F1171" s="12"/>
-      <c r="G1171" s="12"/>
-      <c r="H1171" s="12"/>
-      <c r="I1171" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1171" s="13"/>
-      <c r="K1171" s="13"/>
-    </row>
-    <row r="1172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1172" s="35" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B1172" s="13"/>
-      <c r="C1172" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D1172" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1172" s="12" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F1172" s="12"/>
-      <c r="G1172" s="12"/>
-      <c r="H1172" s="12"/>
-      <c r="I1172" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1172" s="13"/>
-      <c r="K1172" s="13"/>
-    </row>
-    <row r="1173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1173" s="35" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B1173" s="13"/>
-      <c r="C1173" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1173" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1173" s="12" t="s">
-        <v>1916</v>
-      </c>
-      <c r="F1173" s="12"/>
-      <c r="G1173" s="12"/>
-      <c r="H1173" s="12"/>
-      <c r="I1173" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1173" s="13"/>
-      <c r="K1173" s="13"/>
+      <c r="A1171" s="7" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1171" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D1171" s="8" t="s">
+        <v>4191</v>
+      </c>
+      <c r="E1171" s="8" t="s">
+        <v>4192</v>
+      </c>
+      <c r="I1171" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1172" s="7" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1172" s="7" t="s">
+        <v>4193</v>
+      </c>
+      <c r="D1172" s="8" t="s">
+        <v>4194</v>
+      </c>
+      <c r="E1172" s="8" t="s">
+        <v>4195</v>
+      </c>
+      <c r="I1172" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1173" s="7" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1173" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D1173" s="8" t="s">
+        <v>4196</v>
+      </c>
+      <c r="E1173" s="8" t="s">
+        <v>4197</v>
+      </c>
+      <c r="I1173" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="1174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1174" s="35" t="s">
@@ -39974,17 +39998,17 @@
       </c>
       <c r="B1174" s="13"/>
       <c r="C1174" s="13" t="s">
-        <v>983</v>
-      </c>
-      <c r="D1174" s="12" t="s">
-        <v>1930</v>
+        <v>387</v>
+      </c>
+      <c r="D1174" s="13" t="s">
+        <v>674</v>
       </c>
       <c r="E1174" s="12" t="s">
-        <v>1931</v>
+        <v>1914</v>
       </c>
       <c r="F1174" s="12"/>
       <c r="G1174" s="12"/>
-      <c r="H1174" s="13"/>
+      <c r="H1174" s="12"/>
       <c r="I1174" s="13" t="s">
         <v>128</v>
       </c>
@@ -39997,36 +40021,36 @@
       </c>
       <c r="B1175" s="13"/>
       <c r="C1175" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1175" s="12" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E1175" s="36" t="s">
-        <v>1934</v>
+        <v>389</v>
+      </c>
+      <c r="D1175" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1175" s="12" t="s">
+        <v>1915</v>
       </c>
       <c r="F1175" s="12"/>
       <c r="G1175" s="12"/>
-      <c r="H1175" s="13"/>
+      <c r="H1175" s="12"/>
       <c r="I1175" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1175" s="13"/>
       <c r="K1175" s="13"/>
     </row>
-    <row r="1176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1176" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1176" s="13"/>
       <c r="C1176" s="13" t="s">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="D1176" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="E1176" s="36" t="s">
-        <v>1917</v>
+        <v>396</v>
+      </c>
+      <c r="E1176" s="12" t="s">
+        <v>1916</v>
       </c>
       <c r="F1176" s="12"/>
       <c r="G1176" s="12"/>
@@ -40041,61 +40065,61 @@
       <c r="A1177" s="35" t="s">
         <v>1913</v>
       </c>
-      <c r="B1177" s="35"/>
-      <c r="C1177" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1177" s="35" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E1177" s="36" t="s">
-        <v>1919</v>
+      <c r="B1177" s="13"/>
+      <c r="C1177" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1177" s="12" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1177" s="12" t="s">
+        <v>1931</v>
       </c>
       <c r="F1177" s="12"/>
       <c r="G1177" s="12"/>
-      <c r="H1177" s="12"/>
+      <c r="H1177" s="13"/>
       <c r="I1177" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1177" s="13"/>
       <c r="K1177" s="13"/>
     </row>
-    <row r="1178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1178" s="35" t="s">
         <v>1913</v>
       </c>
-      <c r="B1178" s="35"/>
-      <c r="C1178" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1178" s="35" t="s">
-        <v>410</v>
+      <c r="B1178" s="13"/>
+      <c r="C1178" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1178" s="12" t="s">
+        <v>1933</v>
       </c>
       <c r="E1178" s="36" t="s">
-        <v>1920</v>
+        <v>1934</v>
       </c>
       <c r="F1178" s="12"/>
       <c r="G1178" s="12"/>
-      <c r="H1178" s="12"/>
+      <c r="H1178" s="13"/>
       <c r="I1178" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1178" s="13"/>
       <c r="K1178" s="13"/>
     </row>
-    <row r="1179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1179" s="35" t="s">
         <v>1913</v>
       </c>
-      <c r="B1179" s="35"/>
-      <c r="C1179" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1179" s="35" t="s">
-        <v>412</v>
+      <c r="B1179" s="13"/>
+      <c r="C1179" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1179" s="13" t="s">
+        <v>711</v>
       </c>
       <c r="E1179" s="36" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="F1179" s="12"/>
       <c r="G1179" s="12"/>
@@ -40106,109 +40130,111 @@
       <c r="J1179" s="13"/>
       <c r="K1179" s="13"/>
     </row>
-    <row r="1180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1180" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1180" s="35"/>
       <c r="C1180" s="35" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D1180" s="36" t="s">
-        <v>1935</v>
+        <v>407</v>
+      </c>
+      <c r="D1180" s="35" t="s">
+        <v>1918</v>
       </c>
       <c r="E1180" s="36" t="s">
-        <v>1936</v>
+        <v>1919</v>
       </c>
       <c r="F1180" s="12"/>
       <c r="G1180" s="12"/>
-      <c r="H1180" s="13"/>
+      <c r="H1180" s="12"/>
       <c r="I1180" s="13" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="J1180" s="13"/>
       <c r="K1180" s="13"/>
     </row>
-    <row r="1181" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1181" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1181" s="35"/>
       <c r="C1181" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="D1181" s="36" t="s">
-        <v>427</v>
+        <v>409</v>
+      </c>
+      <c r="D1181" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="E1181" s="36" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="F1181" s="12"/>
       <c r="G1181" s="12"/>
-      <c r="H1181" s="13"/>
+      <c r="H1181" s="12"/>
       <c r="I1181" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1181" s="13"/>
       <c r="K1181" s="13"/>
     </row>
-    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1182" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1182" s="35"/>
       <c r="C1182" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1182" s="36" t="s">
-        <v>3874</v>
-      </c>
-      <c r="E1182" s="36"/>
+        <v>411</v>
+      </c>
+      <c r="D1182" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1182" s="36" t="s">
+        <v>1921</v>
+      </c>
       <c r="F1182" s="12"/>
       <c r="G1182" s="12"/>
-      <c r="H1182" s="13"/>
+      <c r="H1182" s="12"/>
       <c r="I1182" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1182" s="10"/>
-      <c r="K1182" s="10"/>
-    </row>
-    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1182" s="13"/>
+      <c r="K1182" s="13"/>
+    </row>
+    <row r="1183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1183" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1183" s="35"/>
       <c r="C1183" s="35" t="s">
-        <v>430</v>
+        <v>1911</v>
       </c>
       <c r="D1183" s="36" t="s">
-        <v>431</v>
+        <v>1935</v>
       </c>
       <c r="E1183" s="36" t="s">
-        <v>1922</v>
+        <v>1936</v>
       </c>
       <c r="F1183" s="12"/>
       <c r="G1183" s="12"/>
       <c r="H1183" s="13"/>
       <c r="I1183" s="13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J1183" s="13"/>
       <c r="K1183" s="13"/>
     </row>
-    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1184" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1184" s="35"/>
       <c r="C1184" s="35" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D1184" s="36" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E1184" s="36" t="s">
-        <v>1923</v>
+        <v>1932</v>
       </c>
       <c r="F1184" s="12"/>
       <c r="G1184" s="12"/>
@@ -40225,10 +40251,10 @@
       </c>
       <c r="B1185" s="35"/>
       <c r="C1185" s="35" t="s">
-        <v>779</v>
+        <v>141</v>
       </c>
       <c r="D1185" s="36" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E1185" s="36"/>
       <c r="F1185" s="12"/>
@@ -40246,13 +40272,13 @@
       </c>
       <c r="B1186" s="35"/>
       <c r="C1186" s="35" t="s">
-        <v>1924</v>
+        <v>430</v>
       </c>
       <c r="D1186" s="36" t="s">
-        <v>1925</v>
+        <v>431</v>
       </c>
       <c r="E1186" s="36" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F1186" s="12"/>
       <c r="G1186" s="12"/>
@@ -40269,13 +40295,13 @@
       </c>
       <c r="B1187" s="35"/>
       <c r="C1187" s="35" t="s">
-        <v>3876</v>
+        <v>436</v>
       </c>
       <c r="D1187" s="36" t="s">
-        <v>3877</v>
+        <v>437</v>
       </c>
       <c r="E1187" s="36" t="s">
-        <v>3878</v>
+        <v>1923</v>
       </c>
       <c r="F1187" s="12"/>
       <c r="G1187" s="12"/>
@@ -40283,31 +40309,29 @@
       <c r="I1187" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1187" s="10"/>
-      <c r="K1187" s="10"/>
-    </row>
-    <row r="1188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1187" s="13"/>
+      <c r="K1187" s="13"/>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1188" s="35" t="s">
         <v>1913</v>
       </c>
       <c r="B1188" s="35"/>
       <c r="C1188" s="35" t="s">
-        <v>450</v>
+        <v>779</v>
       </c>
       <c r="D1188" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1188" s="36" t="s">
-        <v>1927</v>
-      </c>
+        <v>3875</v>
+      </c>
+      <c r="E1188" s="36"/>
       <c r="F1188" s="12"/>
       <c r="G1188" s="12"/>
       <c r="H1188" s="13"/>
       <c r="I1188" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1188" s="13"/>
-      <c r="K1188" s="13"/>
+      <c r="J1188" s="10"/>
+      <c r="K1188" s="10"/>
     </row>
     <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1189" s="35" t="s">
@@ -40315,149 +40339,149 @@
       </c>
       <c r="B1189" s="35"/>
       <c r="C1189" s="35" t="s">
-        <v>3879</v>
+        <v>1924</v>
       </c>
       <c r="D1189" s="36" t="s">
-        <v>3880</v>
-      </c>
-      <c r="E1189" s="36"/>
+        <v>1925</v>
+      </c>
+      <c r="E1189" s="36" t="s">
+        <v>1926</v>
+      </c>
       <c r="F1189" s="12"/>
       <c r="G1189" s="12"/>
       <c r="H1189" s="13"/>
       <c r="I1189" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1189" s="10"/>
-      <c r="K1189" s="10"/>
-    </row>
-    <row r="1190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1189" s="13"/>
+      <c r="K1189" s="13"/>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1190" s="35" t="s">
         <v>1913</v>
       </c>
-      <c r="B1190" s="13"/>
-      <c r="C1190" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1190" s="13" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E1190" s="12" t="s">
-        <v>1929</v>
+      <c r="B1190" s="35"/>
+      <c r="C1190" s="35" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D1190" s="36" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E1190" s="36" t="s">
+        <v>3878</v>
       </c>
       <c r="F1190" s="12"/>
       <c r="G1190" s="12"/>
-      <c r="H1190" s="12"/>
+      <c r="H1190" s="13"/>
       <c r="I1190" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1190" s="13"/>
-      <c r="K1190" s="13"/>
-    </row>
-    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1191" s="25" t="s">
+      <c r="J1190" s="10"/>
+      <c r="K1190" s="10"/>
+    </row>
+    <row r="1191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1191" s="35" t="s">
         <v>1913</v>
       </c>
-      <c r="B1191" s="10"/>
-      <c r="C1191" s="10" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D1191" s="11" t="s">
-        <v>3942</v>
-      </c>
-      <c r="E1191" s="11" t="s">
-        <v>3943</v>
-      </c>
-      <c r="F1191" s="11"/>
-      <c r="G1191" s="11"/>
-      <c r="H1191" s="10"/>
-      <c r="I1191" s="10" t="s">
+      <c r="B1191" s="35"/>
+      <c r="C1191" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1191" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1191" s="36" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F1191" s="12"/>
+      <c r="G1191" s="12"/>
+      <c r="H1191" s="13"/>
+      <c r="I1191" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1191" s="10"/>
-      <c r="K1191" s="10"/>
+      <c r="J1191" s="13"/>
+      <c r="K1191" s="13"/>
     </row>
     <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1192" s="25" t="s">
-        <v>3810</v>
-      </c>
-      <c r="B1192" s="10"/>
-      <c r="C1192" s="10" t="s">
-        <v>3802</v>
-      </c>
-      <c r="D1192" s="11" t="s">
-        <v>3791</v>
-      </c>
-      <c r="E1192" s="11" t="s">
-        <v>3791</v>
-      </c>
-      <c r="F1192" s="11"/>
-      <c r="G1192" s="11"/>
-      <c r="H1192" s="10"/>
-      <c r="I1192" s="10" t="s">
-        <v>15</v>
+      <c r="A1192" s="35" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1192" s="35"/>
+      <c r="C1192" s="35" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D1192" s="36" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E1192" s="36"/>
+      <c r="F1192" s="12"/>
+      <c r="G1192" s="12"/>
+      <c r="H1192" s="13"/>
+      <c r="I1192" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="J1192" s="10"/>
       <c r="K1192" s="10"/>
     </row>
-    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1193" s="10" t="s">
-        <v>3810</v>
-      </c>
-      <c r="B1193" s="10"/>
-      <c r="C1193" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="D1193" s="11" t="s">
-        <v>3795</v>
-      </c>
-      <c r="E1193" s="11" t="s">
-        <v>3805</v>
-      </c>
-      <c r="F1193" s="11"/>
-      <c r="G1193" s="11"/>
-      <c r="H1193" s="10"/>
-      <c r="I1193" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1193" s="10"/>
-      <c r="K1193" s="10"/>
+    <row r="1193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1193" s="35" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1193" s="13"/>
+      <c r="C1193" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1193" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1193" s="12" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F1193" s="12"/>
+      <c r="G1193" s="12"/>
+      <c r="H1193" s="12"/>
+      <c r="I1193" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1193" s="13"/>
+      <c r="K1193" s="13"/>
     </row>
     <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1194" s="10" t="s">
-        <v>3810</v>
+      <c r="A1194" s="25" t="s">
+        <v>1913</v>
       </c>
       <c r="B1194" s="10"/>
       <c r="C1194" s="10" t="s">
-        <v>3803</v>
+        <v>3941</v>
       </c>
       <c r="D1194" s="11" t="s">
-        <v>3793</v>
+        <v>3942</v>
       </c>
       <c r="E1194" s="11" t="s">
-        <v>3804</v>
+        <v>3943</v>
       </c>
       <c r="F1194" s="11"/>
       <c r="G1194" s="11"/>
       <c r="H1194" s="10"/>
       <c r="I1194" s="10" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="J1194" s="10"/>
       <c r="K1194" s="10"/>
     </row>
     <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1195" s="10" t="s">
-        <v>3811</v>
+      <c r="A1195" s="25" t="s">
+        <v>3810</v>
       </c>
       <c r="B1195" s="10"/>
       <c r="C1195" s="10" t="s">
-        <v>62</v>
+        <v>3802</v>
       </c>
       <c r="D1195" s="11" t="s">
-        <v>3807</v>
+        <v>3791</v>
       </c>
       <c r="E1195" s="11" t="s">
-        <v>3807</v>
+        <v>3791</v>
       </c>
       <c r="F1195" s="11"/>
       <c r="G1195" s="11"/>
@@ -40470,17 +40494,17 @@
     </row>
     <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1196" s="10" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1196" s="10"/>
       <c r="C1196" s="10" t="s">
-        <v>261</v>
+        <v>943</v>
       </c>
       <c r="D1196" s="11" t="s">
-        <v>262</v>
+        <v>3795</v>
       </c>
       <c r="E1196" s="11" t="s">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="F1196" s="11"/>
       <c r="G1196" s="11"/>
@@ -40493,95 +40517,95 @@
     </row>
     <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1197" s="10" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1197" s="10"/>
       <c r="C1197" s="10" t="s">
-        <v>66</v>
+        <v>3803</v>
       </c>
       <c r="D1197" s="11" t="s">
-        <v>67</v>
+        <v>3793</v>
       </c>
       <c r="E1197" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1197" s="27"/>
-      <c r="G1197" s="27"/>
-      <c r="H1197" s="25"/>
+        <v>3804</v>
+      </c>
+      <c r="F1197" s="11"/>
+      <c r="G1197" s="11"/>
+      <c r="H1197" s="10"/>
       <c r="I1197" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1197" s="25"/>
-      <c r="K1197" s="25"/>
+      <c r="J1197" s="10"/>
+      <c r="K1197" s="10"/>
     </row>
     <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1198" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B1198" s="13"/>
-      <c r="C1198" s="13" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D1198" s="12" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E1198" s="12"/>
-      <c r="F1198" s="12"/>
-      <c r="G1198" s="12"/>
-      <c r="H1198" s="13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="I1198" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1198" s="13"/>
-      <c r="K1198" s="13"/>
+      <c r="A1198" s="10" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1198" s="10"/>
+      <c r="C1198" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1198" s="11" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E1198" s="11" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1198" s="11"/>
+      <c r="G1198" s="11"/>
+      <c r="H1198" s="10"/>
+      <c r="I1198" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1198" s="10"/>
+      <c r="K1198" s="10"/>
     </row>
     <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1199" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B1199" s="13"/>
-      <c r="C1199" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1199" s="12" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E1199" s="12"/>
-      <c r="F1199" s="12"/>
-      <c r="G1199" s="12"/>
-      <c r="H1199" s="13" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I1199" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1199" s="13"/>
-      <c r="K1199" s="13"/>
+      <c r="A1199" s="10" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1199" s="10"/>
+      <c r="C1199" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1199" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1199" s="11" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F1199" s="11"/>
+      <c r="G1199" s="11"/>
+      <c r="H1199" s="10"/>
+      <c r="I1199" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1199" s="10"/>
+      <c r="K1199" s="10"/>
     </row>
     <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1200" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B1200" s="13"/>
-      <c r="C1200" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D1200" s="12" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E1200" s="12"/>
-      <c r="F1200" s="12"/>
-      <c r="G1200" s="12"/>
-      <c r="H1200" s="13" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I1200" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1200" s="13"/>
-      <c r="K1200" s="13"/>
+      <c r="A1200" s="10" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1200" s="10"/>
+      <c r="C1200" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1200" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1200" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1200" s="27"/>
+      <c r="G1200" s="27"/>
+      <c r="H1200" s="25"/>
+      <c r="I1200" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1200" s="25"/>
+      <c r="K1200" s="25"/>
     </row>
     <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1201" s="13" t="s">
@@ -40589,10 +40613,10 @@
       </c>
       <c r="B1201" s="13"/>
       <c r="C1201" s="13" t="s">
-        <v>465</v>
+        <v>1938</v>
       </c>
       <c r="D1201" s="12" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="E1201" s="12"/>
       <c r="F1201" s="12"/>
@@ -40612,10 +40636,10 @@
       </c>
       <c r="B1202" s="13"/>
       <c r="C1202" s="13" t="s">
-        <v>1908</v>
+        <v>180</v>
       </c>
       <c r="D1202" s="12" t="s">
-        <v>1909</v>
+        <v>1942</v>
       </c>
       <c r="E1202" s="12"/>
       <c r="F1202" s="12"/>
@@ -40635,16 +40659,16 @@
       </c>
       <c r="B1203" s="13"/>
       <c r="C1203" s="13" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="D1203" s="12" t="s">
-        <v>1949</v>
+        <v>1907</v>
       </c>
       <c r="E1203" s="12"/>
       <c r="F1203" s="12"/>
       <c r="G1203" s="12"/>
       <c r="H1203" s="13" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="I1203" s="13" t="s">
         <v>114</v>
@@ -40658,16 +40682,16 @@
       </c>
       <c r="B1204" s="13"/>
       <c r="C1204" s="13" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="D1204" s="12" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="E1204" s="12"/>
       <c r="F1204" s="12"/>
       <c r="G1204" s="12"/>
       <c r="H1204" s="13" t="s">
-        <v>1953</v>
+        <v>1940</v>
       </c>
       <c r="I1204" s="13" t="s">
         <v>114</v>
@@ -40681,16 +40705,16 @@
       </c>
       <c r="B1205" s="13"/>
       <c r="C1205" s="13" t="s">
-        <v>1950</v>
+        <v>1908</v>
       </c>
       <c r="D1205" s="12" t="s">
-        <v>1951</v>
+        <v>1909</v>
       </c>
       <c r="E1205" s="12"/>
       <c r="F1205" s="12"/>
       <c r="G1205" s="12"/>
       <c r="H1205" s="13" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="I1205" s="13" t="s">
         <v>114</v>
@@ -40704,16 +40728,16 @@
       </c>
       <c r="B1206" s="13"/>
       <c r="C1206" s="13" t="s">
-        <v>836</v>
+        <v>506</v>
       </c>
       <c r="D1206" s="12" t="s">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="E1206" s="12"/>
       <c r="F1206" s="12"/>
       <c r="G1206" s="12"/>
       <c r="H1206" s="13" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="I1206" s="13" t="s">
         <v>114</v>
@@ -40727,16 +40751,16 @@
       </c>
       <c r="B1207" s="13"/>
       <c r="C1207" s="13" t="s">
-        <v>129</v>
+        <v>511</v>
       </c>
       <c r="D1207" s="12" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="E1207" s="12"/>
       <c r="F1207" s="12"/>
       <c r="G1207" s="12"/>
       <c r="H1207" s="13" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="I1207" s="13" t="s">
         <v>114</v>
@@ -40750,10 +40774,10 @@
       </c>
       <c r="B1208" s="13"/>
       <c r="C1208" s="13" t="s">
-        <v>139</v>
+        <v>1950</v>
       </c>
       <c r="D1208" s="12" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="E1208" s="12"/>
       <c r="F1208" s="12"/>
@@ -40768,21 +40792,21 @@
       <c r="K1208" s="13"/>
     </row>
     <row r="1209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1209" s="35" t="s">
+      <c r="A1209" s="13" t="s">
         <v>1937</v>
       </c>
       <c r="B1209" s="13"/>
       <c r="C1209" s="13" t="s">
-        <v>75</v>
+        <v>836</v>
       </c>
       <c r="D1209" s="12" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="E1209" s="12"/>
       <c r="F1209" s="12"/>
       <c r="G1209" s="12"/>
       <c r="H1209" s="13" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="I1209" s="13" t="s">
         <v>114</v>
@@ -40791,67 +40815,73 @@
       <c r="K1209" s="13"/>
     </row>
     <row r="1210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1210" s="10" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B1210" s="10"/>
-      <c r="C1210" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D1210" s="11" t="s">
-        <v>4078</v>
-      </c>
-      <c r="E1210" s="11"/>
-      <c r="F1210" s="11"/>
-      <c r="G1210" s="11"/>
-      <c r="H1210" s="10"/>
+      <c r="A1210" s="13" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1210" s="13"/>
+      <c r="C1210" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1210" s="12" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1210" s="12"/>
+      <c r="F1210" s="12"/>
+      <c r="G1210" s="12"/>
+      <c r="H1210" s="13" t="s">
+        <v>1946</v>
+      </c>
       <c r="I1210" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1210" s="10"/>
-      <c r="K1210" s="10"/>
+      <c r="J1210" s="13"/>
+      <c r="K1210" s="13"/>
     </row>
     <row r="1211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1211" s="10" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B1211" s="10"/>
-      <c r="C1211" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1211" s="11" t="s">
-        <v>4079</v>
-      </c>
-      <c r="E1211" s="11"/>
-      <c r="F1211" s="11"/>
-      <c r="G1211" s="11"/>
-      <c r="H1211" s="10"/>
+      <c r="A1211" s="13" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1211" s="13"/>
+      <c r="C1211" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1211" s="12" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1211" s="12"/>
+      <c r="F1211" s="12"/>
+      <c r="G1211" s="12"/>
+      <c r="H1211" s="13" t="s">
+        <v>1946</v>
+      </c>
       <c r="I1211" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1211" s="10"/>
-      <c r="K1211" s="10"/>
+      <c r="J1211" s="13"/>
+      <c r="K1211" s="13"/>
     </row>
     <row r="1212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1212" s="10" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B1212" s="10"/>
-      <c r="C1212" s="10" t="s">
-        <v>4076</v>
-      </c>
-      <c r="D1212" s="11" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E1212" s="11"/>
-      <c r="F1212" s="11"/>
-      <c r="G1212" s="11"/>
-      <c r="H1212" s="10"/>
+      <c r="A1212" s="35" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1212" s="13"/>
+      <c r="C1212" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1212" s="12" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1212" s="12"/>
+      <c r="F1212" s="12"/>
+      <c r="G1212" s="12"/>
+      <c r="H1212" s="13" t="s">
+        <v>1946</v>
+      </c>
       <c r="I1212" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1212" s="10"/>
-      <c r="K1212" s="10"/>
+      <c r="J1212" s="13"/>
+      <c r="K1212" s="13"/>
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1213" s="10" t="s">
@@ -40859,10 +40889,10 @@
       </c>
       <c r="B1213" s="10"/>
       <c r="C1213" s="10" t="s">
-        <v>4077</v>
+        <v>426</v>
       </c>
       <c r="D1213" s="11" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="E1213" s="11"/>
       <c r="F1213" s="11"/>
@@ -40875,130 +40905,130 @@
       <c r="K1213" s="10"/>
     </row>
     <row r="1214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1214" s="35" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1214" s="13"/>
-      <c r="C1214" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1214" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1214" s="12"/>
-      <c r="F1214" s="12"/>
-      <c r="G1214" s="12"/>
-      <c r="H1214" s="13"/>
+      <c r="A1214" s="10" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B1214" s="10"/>
+      <c r="C1214" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1214" s="11" t="s">
+        <v>4079</v>
+      </c>
+      <c r="E1214" s="11"/>
+      <c r="F1214" s="11"/>
+      <c r="G1214" s="11"/>
+      <c r="H1214" s="10"/>
       <c r="I1214" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1214" s="13"/>
-      <c r="K1214" s="13"/>
+      <c r="J1214" s="10"/>
+      <c r="K1214" s="10"/>
     </row>
     <row r="1215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1215" s="35" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1215" s="13"/>
-      <c r="C1215" s="13" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D1215" s="12" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E1215" s="12"/>
-      <c r="F1215" s="12"/>
-      <c r="G1215" s="12"/>
-      <c r="H1215" s="13"/>
+      <c r="A1215" s="10" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B1215" s="10"/>
+      <c r="C1215" s="10" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1215" s="11" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E1215" s="11"/>
+      <c r="F1215" s="11"/>
+      <c r="G1215" s="11"/>
+      <c r="H1215" s="10"/>
       <c r="I1215" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1215" s="13"/>
-      <c r="K1215" s="13"/>
+      <c r="J1215" s="10"/>
+      <c r="K1215" s="10"/>
     </row>
     <row r="1216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1216" s="13" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1216" s="13"/>
-      <c r="C1216" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1216" s="12" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E1216" s="12"/>
-      <c r="F1216" s="12"/>
-      <c r="G1216" s="12"/>
-      <c r="H1216" s="13"/>
+      <c r="A1216" s="10" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B1216" s="10"/>
+      <c r="C1216" s="10" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D1216" s="11" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E1216" s="11"/>
+      <c r="F1216" s="11"/>
+      <c r="G1216" s="11"/>
+      <c r="H1216" s="10"/>
       <c r="I1216" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1216" s="13"/>
-      <c r="K1216" s="13"/>
+      <c r="J1216" s="10"/>
+      <c r="K1216" s="10"/>
     </row>
     <row r="1217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1217" s="12" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1217" s="12"/>
+      <c r="A1217" s="35" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1217" s="13"/>
       <c r="C1217" s="13" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D1217" s="13" t="s">
-        <v>1958</v>
+        <v>351</v>
+      </c>
+      <c r="D1217" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="E1217" s="12"/>
       <c r="F1217" s="12"/>
       <c r="G1217" s="12"/>
-      <c r="H1217" s="12"/>
+      <c r="H1217" s="13"/>
       <c r="I1217" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1217" s="12"/>
-      <c r="K1217" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1217" s="13"/>
+      <c r="K1217" s="13"/>
     </row>
     <row r="1218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1218" s="12" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1218" s="12"/>
+      <c r="A1218" s="35" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1218" s="13"/>
       <c r="C1218" s="13" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D1218" s="13" t="s">
-        <v>1960</v>
+        <v>1656</v>
+      </c>
+      <c r="D1218" s="12" t="s">
+        <v>1955</v>
       </c>
       <c r="E1218" s="12"/>
       <c r="F1218" s="12"/>
       <c r="G1218" s="12"/>
-      <c r="H1218" s="12"/>
+      <c r="H1218" s="13"/>
       <c r="I1218" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1218" s="12"/>
-      <c r="K1218" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1218" s="13"/>
+      <c r="K1218" s="13"/>
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1219" s="12" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1219" s="12"/>
+      <c r="A1219" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1219" s="13"/>
       <c r="C1219" s="13" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D1219" s="13" t="s">
-        <v>1961</v>
+        <v>75</v>
+      </c>
+      <c r="D1219" s="12" t="s">
+        <v>1228</v>
       </c>
       <c r="E1219" s="12"/>
       <c r="F1219" s="12"/>
       <c r="G1219" s="12"/>
-      <c r="H1219" s="12"/>
+      <c r="H1219" s="13"/>
       <c r="I1219" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1219" s="12"/>
-      <c r="K1219" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1219" s="13"/>
+      <c r="K1219" s="13"/>
     </row>
     <row r="1220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1220" s="12" t="s">
@@ -41006,10 +41036,10 @@
       </c>
       <c r="B1220" s="12"/>
       <c r="C1220" s="13" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="D1220" s="13" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="E1220" s="12"/>
       <c r="F1220" s="12"/>
@@ -41027,10 +41057,10 @@
       </c>
       <c r="B1221" s="12"/>
       <c r="C1221" s="13" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D1221" s="13" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="E1221" s="12"/>
       <c r="F1221" s="12"/>
@@ -41048,10 +41078,10 @@
       </c>
       <c r="B1222" s="12"/>
       <c r="C1222" s="13" t="s">
-        <v>1966</v>
+        <v>1905</v>
       </c>
       <c r="D1222" s="13" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="E1222" s="12"/>
       <c r="F1222" s="12"/>
@@ -41068,11 +41098,13 @@
         <v>1956</v>
       </c>
       <c r="B1223" s="12"/>
-      <c r="C1223" s="13"/>
-      <c r="D1223" s="13"/>
-      <c r="E1223" s="36" t="s">
-        <v>1968</v>
-      </c>
+      <c r="C1223" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D1223" s="13" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
       <c r="G1223" s="12"/>
       <c r="H1223" s="12"/>
@@ -41082,88 +41114,80 @@
       <c r="J1223" s="12"/>
       <c r="K1223" s="12"/>
     </row>
-    <row r="1224" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1224" s="10" t="s">
+    <row r="1224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1224" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1224" s="12"/>
+      <c r="C1224" s="13" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1224" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E1224" s="12"/>
+      <c r="F1224" s="12"/>
+      <c r="G1224" s="12"/>
+      <c r="H1224" s="12"/>
+      <c r="I1224" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1224" s="12"/>
+      <c r="K1224" s="12"/>
+    </row>
+    <row r="1225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1225" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1225" s="12"/>
+      <c r="C1225" s="13" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D1225" s="13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1225" s="12"/>
+      <c r="F1225" s="12"/>
+      <c r="G1225" s="12"/>
+      <c r="H1225" s="12"/>
+      <c r="I1225" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1225" s="12"/>
+      <c r="K1225" s="12"/>
+    </row>
+    <row r="1226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1226" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1226" s="12"/>
+      <c r="C1226" s="13"/>
+      <c r="D1226" s="13"/>
+      <c r="E1226" s="36" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F1226" s="12"/>
+      <c r="G1226" s="12"/>
+      <c r="H1226" s="12"/>
+      <c r="I1226" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1226" s="12"/>
+      <c r="K1226" s="12"/>
+    </row>
+    <row r="1227" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1227" s="10" t="s">
         <v>4121</v>
       </c>
-      <c r="B1224" s="10"/>
-      <c r="C1224" s="10" t="s">
+      <c r="B1227" s="10"/>
+      <c r="C1227" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D1224" s="11" t="s">
+      <c r="D1227" s="11" t="s">
         <v>1973</v>
       </c>
-      <c r="E1224" s="27" t="s">
+      <c r="E1227" s="27" t="s">
         <v>1974</v>
-      </c>
-      <c r="F1224" s="11"/>
-      <c r="G1224" s="11"/>
-      <c r="H1224" s="10"/>
-      <c r="I1224" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1224" s="10"/>
-      <c r="K1224" s="10"/>
-    </row>
-    <row r="1225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1225" s="25" t="s">
-        <v>4121</v>
-      </c>
-      <c r="B1225" s="25"/>
-      <c r="C1225" s="25" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D1225" s="27" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E1225" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F1225" s="11"/>
-      <c r="G1225" s="11"/>
-      <c r="H1225" s="10"/>
-      <c r="I1225" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1225" s="10"/>
-      <c r="K1225" s="10"/>
-    </row>
-    <row r="1226" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1226" s="25" t="s">
-        <v>4121</v>
-      </c>
-      <c r="B1226" s="25"/>
-      <c r="C1226" s="25" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D1226" s="27" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E1226" s="27" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F1226" s="11"/>
-      <c r="G1226" s="11"/>
-      <c r="H1226" s="10"/>
-      <c r="I1226" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1226" s="10"/>
-      <c r="K1226" s="10"/>
-    </row>
-    <row r="1227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1227" s="25" t="s">
-        <v>4121</v>
-      </c>
-      <c r="B1227" s="25"/>
-      <c r="C1227" s="25" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D1227" s="27" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E1227" s="27" t="s">
-        <v>1972</v>
       </c>
       <c r="F1227" s="11"/>
       <c r="G1227" s="11"/>
@@ -41174,18 +41198,20 @@
       <c r="J1227" s="10"/>
       <c r="K1227" s="10"/>
     </row>
-    <row r="1228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1228" s="25" t="s">
         <v>4121</v>
       </c>
       <c r="B1228" s="25"/>
       <c r="C1228" s="25" t="s">
-        <v>869</v>
+        <v>1975</v>
       </c>
       <c r="D1228" s="27" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E1228" s="27"/>
+        <v>1976</v>
+      </c>
+      <c r="E1228" s="27" t="s">
+        <v>1977</v>
+      </c>
       <c r="F1228" s="11"/>
       <c r="G1228" s="11"/>
       <c r="H1228" s="10"/>
@@ -41195,82 +41221,86 @@
       <c r="J1228" s="10"/>
       <c r="K1228" s="10"/>
     </row>
-    <row r="1229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1229" s="13" t="s">
+    <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1229" s="25" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1229" s="25"/>
+      <c r="C1229" s="25" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D1229" s="27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E1229" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F1229" s="11"/>
+      <c r="G1229" s="11"/>
+      <c r="H1229" s="10"/>
+      <c r="I1229" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1229" s="10"/>
+      <c r="K1229" s="10"/>
+    </row>
+    <row r="1230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1230" s="25" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1230" s="25"/>
+      <c r="C1230" s="25" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D1230" s="27" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1230" s="27" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F1230" s="11"/>
+      <c r="G1230" s="11"/>
+      <c r="H1230" s="10"/>
+      <c r="I1230" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1230" s="10"/>
+      <c r="K1230" s="10"/>
+    </row>
+    <row r="1231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1231" s="25" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1231" s="25"/>
+      <c r="C1231" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1231" s="27" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E1231" s="27"/>
+      <c r="F1231" s="11"/>
+      <c r="G1231" s="11"/>
+      <c r="H1231" s="10"/>
+      <c r="I1231" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1231" s="10"/>
+      <c r="K1231" s="10"/>
+    </row>
+    <row r="1232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1232" s="13" t="s">
         <v>1969</v>
       </c>
-      <c r="B1229" s="13"/>
-      <c r="C1229" s="13" t="s">
+      <c r="B1232" s="13"/>
+      <c r="C1232" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D1229" s="13" t="s">
+      <c r="D1232" s="13" t="s">
         <v>1973</v>
       </c>
-      <c r="E1229" s="36" t="s">
+      <c r="E1232" s="36" t="s">
         <v>4122</v>
-      </c>
-      <c r="F1229" s="12"/>
-      <c r="G1229" s="12"/>
-      <c r="H1229" s="12"/>
-      <c r="I1229" s="13"/>
-      <c r="J1229" s="13"/>
-      <c r="K1229" s="13"/>
-    </row>
-    <row r="1230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1230" s="35" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B1230" s="35"/>
-      <c r="C1230" s="35" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D1230" s="35" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E1230" s="36" t="s">
-        <v>4123</v>
-      </c>
-      <c r="F1230" s="12"/>
-      <c r="G1230" s="12"/>
-      <c r="H1230" s="12"/>
-      <c r="I1230" s="13"/>
-      <c r="J1230" s="13"/>
-      <c r="K1230" s="13"/>
-    </row>
-    <row r="1231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1231" s="35" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B1231" s="35"/>
-      <c r="C1231" s="35" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D1231" s="35" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E1231" s="36" t="s">
-        <v>4124</v>
-      </c>
-      <c r="F1231" s="12"/>
-      <c r="G1231" s="12"/>
-      <c r="H1231" s="12"/>
-      <c r="I1231" s="13"/>
-      <c r="J1231" s="13"/>
-      <c r="K1231" s="13"/>
-    </row>
-    <row r="1232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1232" s="35" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B1232" s="35"/>
-      <c r="C1232" s="35" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D1232" s="35" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E1232" s="36" t="s">
-        <v>4125</v>
       </c>
       <c r="F1232" s="12"/>
       <c r="G1232" s="12"/>
@@ -41279,19 +41309,19 @@
       <c r="J1232" s="13"/>
       <c r="K1232" s="13"/>
     </row>
-    <row r="1233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1233" s="35" t="s">
         <v>1969</v>
       </c>
       <c r="B1233" s="35"/>
       <c r="C1233" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1233" s="36" t="s">
-        <v>1981</v>
+        <v>1975</v>
+      </c>
+      <c r="D1233" s="35" t="s">
+        <v>1976</v>
       </c>
       <c r="E1233" s="36" t="s">
-        <v>4126</v>
+        <v>4123</v>
       </c>
       <c r="F1233" s="12"/>
       <c r="G1233" s="12"/>
@@ -41302,82 +41332,80 @@
     </row>
     <row r="1234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1234" s="35" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="B1234" s="35"/>
       <c r="C1234" s="35" t="s">
-        <v>1115</v>
+        <v>1978</v>
       </c>
       <c r="D1234" s="35" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="E1234" s="36" t="s">
-        <v>1984</v>
+        <v>4124</v>
       </c>
       <c r="F1234" s="12"/>
       <c r="G1234" s="12"/>
       <c r="H1234" s="12"/>
-      <c r="I1234" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1234" s="13"/>
       <c r="J1234" s="13"/>
       <c r="K1234" s="13"/>
     </row>
     <row r="1235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1235" s="35" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="B1235" s="35"/>
       <c r="C1235" s="35" t="s">
-        <v>278</v>
+        <v>1970</v>
       </c>
       <c r="D1235" s="35" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E1235" s="36"/>
+        <v>1971</v>
+      </c>
+      <c r="E1235" s="36" t="s">
+        <v>4125</v>
+      </c>
       <c r="F1235" s="12"/>
       <c r="G1235" s="12"/>
       <c r="H1235" s="12"/>
-      <c r="I1235" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1235" s="13"/>
       <c r="J1235" s="13"/>
       <c r="K1235" s="13"/>
     </row>
-    <row r="1236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1236" s="35" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="B1236" s="35"/>
       <c r="C1236" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1236" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1236" s="36"/>
+        <v>869</v>
+      </c>
+      <c r="D1236" s="36" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E1236" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="F1236" s="12"/>
       <c r="G1236" s="12"/>
       <c r="H1236" s="12"/>
-      <c r="I1236" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1236" s="13"/>
       <c r="J1236" s="13"/>
       <c r="K1236" s="13"/>
     </row>
-    <row r="1237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1237" s="35" t="s">
         <v>1982</v>
       </c>
       <c r="B1237" s="35"/>
       <c r="C1237" s="35" t="s">
-        <v>438</v>
+        <v>1115</v>
       </c>
       <c r="D1237" s="35" t="s">
-        <v>1125</v>
+        <v>1983</v>
       </c>
       <c r="E1237" s="36" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F1237" s="12"/>
       <c r="G1237" s="12"/>
@@ -41394,10 +41422,10 @@
       </c>
       <c r="B1238" s="35"/>
       <c r="C1238" s="35" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="D1238" s="35" t="s">
-        <v>1986</v>
+        <v>1853</v>
       </c>
       <c r="E1238" s="36"/>
       <c r="F1238" s="12"/>
@@ -41415,10 +41443,10 @@
       </c>
       <c r="B1239" s="35"/>
       <c r="C1239" s="35" t="s">
-        <v>858</v>
+        <v>162</v>
       </c>
       <c r="D1239" s="35" t="s">
-        <v>859</v>
+        <v>163</v>
       </c>
       <c r="E1239" s="36"/>
       <c r="F1239" s="12"/>
@@ -41430,18 +41458,20 @@
       <c r="J1239" s="13"/>
       <c r="K1239" s="13"/>
     </row>
-    <row r="1240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1240" s="35" t="s">
         <v>1982</v>
       </c>
       <c r="B1240" s="35"/>
       <c r="C1240" s="35" t="s">
-        <v>1987</v>
+        <v>438</v>
       </c>
       <c r="D1240" s="35" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E1240" s="36"/>
+        <v>1125</v>
+      </c>
+      <c r="E1240" s="36" t="s">
+        <v>1985</v>
+      </c>
       <c r="F1240" s="12"/>
       <c r="G1240" s="12"/>
       <c r="H1240" s="12"/>
@@ -41453,132 +41483,126 @@
     </row>
     <row r="1241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1241" s="35" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="B1241" s="35"/>
       <c r="C1241" s="35" t="s">
-        <v>1642</v>
+        <v>208</v>
       </c>
       <c r="D1241" s="35" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E1241" s="36" t="s">
-        <v>1990</v>
-      </c>
+        <v>1986</v>
+      </c>
+      <c r="E1241" s="36"/>
       <c r="F1241" s="12"/>
       <c r="G1241" s="12"/>
-      <c r="H1241" s="13"/>
+      <c r="H1241" s="12"/>
       <c r="I1241" s="13" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="J1241" s="13"/>
       <c r="K1241" s="13"/>
     </row>
     <row r="1242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1242" s="35" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="B1242" s="35"/>
       <c r="C1242" s="35" t="s">
-        <v>1991</v>
+        <v>858</v>
       </c>
       <c r="D1242" s="35" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E1242" s="36" t="s">
-        <v>1993</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="E1242" s="36"/>
       <c r="F1242" s="12"/>
       <c r="G1242" s="12"/>
-      <c r="H1242" s="13"/>
+      <c r="H1242" s="12"/>
       <c r="I1242" s="13" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="J1242" s="13"/>
       <c r="K1242" s="13"/>
     </row>
-    <row r="1243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1243" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B1243" s="13"/>
-      <c r="C1243" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1243" s="12" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E1243" s="12" t="s">
-        <v>1999</v>
-      </c>
+    <row r="1243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1243" s="35" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1243" s="35"/>
+      <c r="C1243" s="35" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D1243" s="35" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E1243" s="36"/>
       <c r="F1243" s="12"/>
       <c r="G1243" s="12"/>
-      <c r="H1243" s="13"/>
+      <c r="H1243" s="12"/>
       <c r="I1243" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J1243" s="13"/>
       <c r="K1243" s="13"/>
     </row>
     <row r="1244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1244" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B1244" s="13"/>
-      <c r="C1244" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D1244" s="12" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E1244" s="12" t="s">
-        <v>1997</v>
+      <c r="A1244" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1244" s="35"/>
+      <c r="C1244" s="35" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1244" s="35" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E1244" s="36" t="s">
+        <v>1990</v>
       </c>
       <c r="F1244" s="12"/>
       <c r="G1244" s="12"/>
       <c r="H1244" s="13"/>
       <c r="I1244" s="13" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="J1244" s="13"/>
       <c r="K1244" s="13"/>
     </row>
-    <row r="1245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1245" s="13" t="s">
-        <v>2000</v>
-      </c>
-      <c r="B1245" s="13"/>
-      <c r="C1245" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D1245" s="12" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E1245" s="12" t="s">
-        <v>2004</v>
+    <row r="1245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1245" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1245" s="35"/>
+      <c r="C1245" s="35" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D1245" s="35" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1245" s="36" t="s">
+        <v>1993</v>
       </c>
       <c r="F1245" s="12"/>
       <c r="G1245" s="12"/>
       <c r="H1245" s="13"/>
       <c r="I1245" s="13" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="J1245" s="13"/>
       <c r="K1245" s="13"/>
     </row>
     <row r="1246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1246" s="13" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B1246" s="13"/>
       <c r="C1246" s="13" t="s">
-        <v>2008</v>
+        <v>392</v>
       </c>
       <c r="D1246" s="12" t="s">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E1246" s="12" t="s">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F1246" s="12"/>
       <c r="G1246" s="12"/>
@@ -41589,19 +41613,19 @@
       <c r="J1246" s="13"/>
       <c r="K1246" s="13"/>
     </row>
-    <row r="1247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1247" s="13" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B1247" s="13"/>
       <c r="C1247" s="13" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="D1247" s="12" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E1247" s="12" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="F1247" s="12"/>
       <c r="G1247" s="12"/>
@@ -41618,13 +41642,13 @@
       </c>
       <c r="B1248" s="13"/>
       <c r="C1248" s="13" t="s">
-        <v>75</v>
+        <v>1002</v>
       </c>
       <c r="D1248" s="12" t="s">
-        <v>2001</v>
-      </c>
-      <c r="E1248" s="36" t="s">
-        <v>2002</v>
+        <v>2003</v>
+      </c>
+      <c r="E1248" s="12" t="s">
+        <v>2004</v>
       </c>
       <c r="F1248" s="12"/>
       <c r="G1248" s="12"/>
@@ -41635,79 +41659,85 @@
       <c r="J1248" s="13"/>
       <c r="K1248" s="13"/>
     </row>
-    <row r="1249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1249" s="14" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B1249" s="14"/>
-      <c r="C1249" s="14" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D1249" s="14" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E1249" s="43"/>
-      <c r="F1249" s="15"/>
-      <c r="G1249" s="15"/>
-      <c r="H1249" s="14"/>
+    <row r="1249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1249" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1249" s="13"/>
+      <c r="C1249" s="13" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D1249" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E1249" s="12" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1249" s="12"/>
+      <c r="G1249" s="12"/>
+      <c r="H1249" s="13"/>
       <c r="I1249" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1249" s="14"/>
-      <c r="K1249" s="14"/>
-    </row>
-    <row r="1250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1250" s="39" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B1250" s="39"/>
-      <c r="C1250" s="39" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D1250" s="39" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1250" s="43"/>
-      <c r="F1250" s="15"/>
-      <c r="G1250" s="15"/>
-      <c r="H1250" s="14"/>
+      <c r="J1249" s="13"/>
+      <c r="K1249" s="13"/>
+    </row>
+    <row r="1250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1250" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1250" s="13"/>
+      <c r="C1250" s="13" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D1250" s="12" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1250" s="12" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1250" s="12"/>
+      <c r="G1250" s="12"/>
+      <c r="H1250" s="13"/>
       <c r="I1250" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1250" s="14"/>
-      <c r="K1250" s="14"/>
-    </row>
-    <row r="1251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1251" s="39" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B1251" s="39"/>
-      <c r="C1251" s="39" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D1251" s="39" t="s">
-        <v>2017</v>
-      </c>
-      <c r="E1251" s="43"/>
-      <c r="F1251" s="15"/>
-      <c r="G1251" s="15"/>
-      <c r="H1251" s="14"/>
+      <c r="J1250" s="13"/>
+      <c r="K1250" s="13"/>
+    </row>
+    <row r="1251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1251" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1251" s="13"/>
+      <c r="C1251" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1251" s="12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1251" s="36" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F1251" s="12"/>
+      <c r="G1251" s="12"/>
+      <c r="H1251" s="13"/>
       <c r="I1251" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1251" s="14"/>
-      <c r="K1251" s="14"/>
+      <c r="J1251" s="13"/>
+      <c r="K1251" s="13"/>
     </row>
     <row r="1252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1252" s="39" t="s">
+      <c r="A1252" s="14" t="s">
         <v>2011</v>
       </c>
-      <c r="B1252" s="39"/>
-      <c r="C1252" s="39" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D1252" s="39" t="s">
-        <v>2019</v>
+      <c r="B1252" s="14"/>
+      <c r="C1252" s="14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D1252" s="14" t="s">
+        <v>2013</v>
       </c>
       <c r="E1252" s="43"/>
       <c r="F1252" s="15"/>
@@ -41725,10 +41755,10 @@
       </c>
       <c r="B1253" s="39"/>
       <c r="C1253" s="39" t="s">
-        <v>170</v>
+        <v>2014</v>
       </c>
       <c r="D1253" s="39" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E1253" s="43"/>
       <c r="F1253" s="15"/>
@@ -41742,14 +41772,14 @@
     </row>
     <row r="1254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1254" s="39" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B1254" s="39"/>
       <c r="C1254" s="39" t="s">
-        <v>351</v>
+        <v>2016</v>
       </c>
       <c r="D1254" s="39" t="s">
-        <v>352</v>
+        <v>2017</v>
       </c>
       <c r="E1254" s="43"/>
       <c r="F1254" s="15"/>
@@ -41763,14 +41793,14 @@
     </row>
     <row r="1255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1255" s="39" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B1255" s="39"/>
       <c r="C1255" s="39" t="s">
-        <v>1069</v>
+        <v>2018</v>
       </c>
       <c r="D1255" s="39" t="s">
-        <v>356</v>
+        <v>2019</v>
       </c>
       <c r="E1255" s="43"/>
       <c r="F1255" s="15"/>
@@ -41784,14 +41814,14 @@
     </row>
     <row r="1256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1256" s="39" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B1256" s="39"/>
       <c r="C1256" s="39" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="D1256" s="39" t="s">
-        <v>216</v>
+        <v>2020</v>
       </c>
       <c r="E1256" s="43"/>
       <c r="F1256" s="15"/>
@@ -41804,85 +41834,67 @@
       <c r="K1256" s="14"/>
     </row>
     <row r="1257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1257" s="38" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1257" s="38"/>
-      <c r="C1257" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1257" s="38" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E1257" s="42" t="s">
-        <v>2028</v>
-      </c>
-      <c r="F1257" s="17"/>
-      <c r="G1257" s="17"/>
-      <c r="H1257" s="23" t="s">
-        <v>2025</v>
-      </c>
+      <c r="A1257" s="39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1257" s="39"/>
+      <c r="C1257" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1257" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1257" s="43"/>
+      <c r="F1257" s="15"/>
+      <c r="G1257" s="15"/>
+      <c r="H1257" s="14"/>
       <c r="I1257" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1257" s="23" t="s">
-        <v>2026</v>
-      </c>
-      <c r="K1257" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="J1257" s="14"/>
+      <c r="K1257" s="14"/>
     </row>
     <row r="1258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1258" s="38" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1258" s="38"/>
-      <c r="C1258" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1258" s="38" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E1258" s="42" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F1258" s="17"/>
-      <c r="G1258" s="17"/>
-      <c r="H1258" s="23" t="s">
-        <v>2025</v>
-      </c>
+      <c r="A1258" s="39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1258" s="39"/>
+      <c r="C1258" s="39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1258" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1258" s="43"/>
+      <c r="F1258" s="15"/>
+      <c r="G1258" s="15"/>
+      <c r="H1258" s="14"/>
       <c r="I1258" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1258" s="23" t="s">
-        <v>2026</v>
-      </c>
-      <c r="K1258" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="J1258" s="14"/>
+      <c r="K1258" s="14"/>
     </row>
     <row r="1259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1259" s="38" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1259" s="38"/>
-      <c r="C1259" s="38" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D1259" s="38" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E1259" s="42" t="s">
-        <v>2038</v>
-      </c>
-      <c r="F1259" s="17"/>
-      <c r="G1259" s="17"/>
-      <c r="H1259" s="23" t="s">
-        <v>2025</v>
-      </c>
+      <c r="A1259" s="39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1259" s="39"/>
+      <c r="C1259" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1259" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1259" s="43"/>
+      <c r="F1259" s="15"/>
+      <c r="G1259" s="15"/>
+      <c r="H1259" s="14"/>
       <c r="I1259" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1259" s="23" t="s">
-        <v>2026</v>
-      </c>
-      <c r="K1259" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="J1259" s="14"/>
+      <c r="K1259" s="14"/>
     </row>
     <row r="1260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1260" s="38" t="s">
@@ -41890,18 +41902,18 @@
       </c>
       <c r="B1260" s="38"/>
       <c r="C1260" s="38" t="s">
-        <v>886</v>
+        <v>387</v>
       </c>
       <c r="D1260" s="38" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E1260" s="42" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="F1260" s="17"/>
       <c r="G1260" s="17"/>
       <c r="H1260" s="23" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="I1260" s="13" t="s">
         <v>15</v>
@@ -41917,13 +41929,13 @@
       </c>
       <c r="B1261" s="38"/>
       <c r="C1261" s="38" t="s">
-        <v>2032</v>
+        <v>82</v>
       </c>
       <c r="D1261" s="38" t="s">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="E1261" s="42" t="s">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="F1261" s="17"/>
       <c r="G1261" s="17"/>
@@ -41944,13 +41956,13 @@
       </c>
       <c r="B1262" s="38"/>
       <c r="C1262" s="38" t="s">
-        <v>284</v>
+        <v>2036</v>
       </c>
       <c r="D1262" s="38" t="s">
-        <v>285</v>
+        <v>2037</v>
       </c>
       <c r="E1262" s="42" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="F1262" s="17"/>
       <c r="G1262" s="17"/>
@@ -41969,20 +41981,20 @@
       <c r="A1263" s="38" t="s">
         <v>2022</v>
       </c>
-      <c r="B1263" s="23"/>
-      <c r="C1263" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="D1263" s="23" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E1263" s="17" t="s">
-        <v>2040</v>
+      <c r="B1263" s="38"/>
+      <c r="C1263" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1263" s="38" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E1263" s="42" t="s">
+        <v>2030</v>
       </c>
       <c r="F1263" s="17"/>
       <c r="G1263" s="17"/>
       <c r="H1263" s="23" t="s">
-        <v>2041</v>
+        <v>2031</v>
       </c>
       <c r="I1263" s="13" t="s">
         <v>15</v>
@@ -41996,15 +42008,15 @@
       <c r="A1264" s="38" t="s">
         <v>2022</v>
       </c>
-      <c r="B1264" s="23"/>
-      <c r="C1264" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1264" s="23" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E1264" s="17" t="s">
-        <v>2043</v>
+      <c r="B1264" s="38"/>
+      <c r="C1264" s="38" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D1264" s="38" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1264" s="42" t="s">
+        <v>2034</v>
       </c>
       <c r="F1264" s="17"/>
       <c r="G1264" s="17"/>
@@ -42020,18 +42032,18 @@
       <c r="K1264" s="23"/>
     </row>
     <row r="1265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1265" s="23" t="s">
+      <c r="A1265" s="38" t="s">
         <v>2022</v>
       </c>
-      <c r="B1265" s="23"/>
-      <c r="C1265" s="23" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D1265" s="23" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E1265" s="17" t="s">
-        <v>2045</v>
+      <c r="B1265" s="38"/>
+      <c r="C1265" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1265" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1265" s="42" t="s">
+        <v>2035</v>
       </c>
       <c r="F1265" s="17"/>
       <c r="G1265" s="17"/>
@@ -42047,23 +42059,23 @@
       <c r="K1265" s="23"/>
     </row>
     <row r="1266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1266" s="23" t="s">
+      <c r="A1266" s="38" t="s">
         <v>2022</v>
       </c>
       <c r="B1266" s="23"/>
       <c r="C1266" s="23" t="s">
-        <v>2046</v>
+        <v>511</v>
       </c>
       <c r="D1266" s="23" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="E1266" s="17" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
       <c r="F1266" s="17"/>
       <c r="G1266" s="17"/>
       <c r="H1266" s="23" t="s">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="I1266" s="13" t="s">
         <v>15</v>
@@ -42074,23 +42086,23 @@
       <c r="K1266" s="23"/>
     </row>
     <row r="1267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1267" s="23" t="s">
+      <c r="A1267" s="38" t="s">
         <v>2022</v>
       </c>
       <c r="B1267" s="23"/>
       <c r="C1267" s="23" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="D1267" s="23" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="E1267" s="17" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="F1267" s="17"/>
       <c r="G1267" s="17"/>
       <c r="H1267" s="23" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="I1267" s="13" t="s">
         <v>15</v>
@@ -42106,13 +42118,13 @@
       </c>
       <c r="B1268" s="23"/>
       <c r="C1268" s="23" t="s">
-        <v>2051</v>
+        <v>1891</v>
       </c>
       <c r="D1268" s="23" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
       <c r="E1268" s="17" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="F1268" s="17"/>
       <c r="G1268" s="17"/>
@@ -42133,18 +42145,18 @@
       </c>
       <c r="B1269" s="23"/>
       <c r="C1269" s="23" t="s">
-        <v>1638</v>
+        <v>2046</v>
       </c>
       <c r="D1269" s="23" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="E1269" s="17" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="F1269" s="17"/>
       <c r="G1269" s="17"/>
       <c r="H1269" s="23" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="I1269" s="13" t="s">
         <v>15</v>
@@ -42160,13 +42172,13 @@
       </c>
       <c r="B1270" s="23"/>
       <c r="C1270" s="23" t="s">
-        <v>1205</v>
+        <v>233</v>
       </c>
       <c r="D1270" s="23" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="E1270" s="17" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="F1270" s="17"/>
       <c r="G1270" s="17"/>
@@ -42187,13 +42199,13 @@
       </c>
       <c r="B1271" s="23"/>
       <c r="C1271" s="23" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="D1271" s="23" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="E1271" s="17" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="F1271" s="17"/>
       <c r="G1271" s="17"/>
@@ -42214,18 +42226,18 @@
       </c>
       <c r="B1272" s="23"/>
       <c r="C1272" s="23" t="s">
-        <v>1978</v>
+        <v>1638</v>
       </c>
       <c r="D1272" s="23" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="E1272" s="17" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="F1272" s="17"/>
       <c r="G1272" s="17"/>
       <c r="H1272" s="23" t="s">
-        <v>2041</v>
+        <v>2025</v>
       </c>
       <c r="I1272" s="13" t="s">
         <v>15</v>
@@ -42241,18 +42253,18 @@
       </c>
       <c r="B1273" s="23"/>
       <c r="C1273" s="23" t="s">
-        <v>2063</v>
+        <v>1205</v>
       </c>
       <c r="D1273" s="23" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="E1273" s="17" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="F1273" s="17"/>
       <c r="G1273" s="17"/>
       <c r="H1273" s="23" t="s">
-        <v>2041</v>
+        <v>2031</v>
       </c>
       <c r="I1273" s="13" t="s">
         <v>15</v>
@@ -42263,23 +42275,23 @@
       <c r="K1273" s="23"/>
     </row>
     <row r="1274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1274" s="38" t="s">
+      <c r="A1274" s="23" t="s">
         <v>2022</v>
       </c>
       <c r="B1274" s="23"/>
       <c r="C1274" s="23" t="s">
-        <v>141</v>
+        <v>2058</v>
       </c>
       <c r="D1274" s="23" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="E1274" s="17" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="F1274" s="17"/>
       <c r="G1274" s="17"/>
       <c r="H1274" s="23" t="s">
-        <v>2041</v>
+        <v>2025</v>
       </c>
       <c r="I1274" s="13" t="s">
         <v>15</v>
@@ -42289,24 +42301,24 @@
       </c>
       <c r="K1274" s="23"/>
     </row>
-    <row r="1275" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1275" s="38" t="s">
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1275" s="23" t="s">
         <v>2022</v>
       </c>
       <c r="B1275" s="23"/>
       <c r="C1275" s="23" t="s">
-        <v>328</v>
+        <v>1978</v>
       </c>
       <c r="D1275" s="23" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="E1275" s="17" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="F1275" s="17"/>
       <c r="G1275" s="17"/>
       <c r="H1275" s="23" t="s">
-        <v>2025</v>
+        <v>2041</v>
       </c>
       <c r="I1275" s="13" t="s">
         <v>15</v>
@@ -42317,23 +42329,23 @@
       <c r="K1275" s="23"/>
     </row>
     <row r="1276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1276" s="38" t="s">
+      <c r="A1276" s="23" t="s">
         <v>2022</v>
       </c>
       <c r="B1276" s="23"/>
       <c r="C1276" s="23" t="s">
-        <v>568</v>
+        <v>2063</v>
       </c>
       <c r="D1276" s="23" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="E1276" s="17" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="F1276" s="17"/>
       <c r="G1276" s="17"/>
       <c r="H1276" s="23" t="s">
-        <v>2025</v>
+        <v>2041</v>
       </c>
       <c r="I1276" s="13" t="s">
         <v>15</v>
@@ -42349,18 +42361,18 @@
       </c>
       <c r="B1277" s="23"/>
       <c r="C1277" s="23" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D1277" s="23" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="E1277" s="17" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="F1277" s="17"/>
       <c r="G1277" s="17"/>
       <c r="H1277" s="23" t="s">
-        <v>2025</v>
+        <v>2041</v>
       </c>
       <c r="I1277" s="13" t="s">
         <v>15</v>
@@ -42370,94 +42382,100 @@
       </c>
       <c r="K1277" s="23"/>
     </row>
-    <row r="1278" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1278" s="12" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1278" s="12"/>
-      <c r="C1278" s="13" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D1278" s="13" t="s">
-        <v>2075</v>
-      </c>
-      <c r="E1278" s="12" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F1278" s="12"/>
-      <c r="G1278" s="12"/>
-      <c r="H1278" s="12"/>
+    <row r="1278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1278" s="38" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1278" s="23"/>
+      <c r="C1278" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1278" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1278" s="17" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F1278" s="17"/>
+      <c r="G1278" s="17"/>
+      <c r="H1278" s="23" t="s">
+        <v>2025</v>
+      </c>
       <c r="I1278" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1278" s="12"/>
-      <c r="K1278" s="23" t="s">
+      <c r="J1278" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K1278" s="23"/>
+    </row>
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1279" s="38" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="1279" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1279" s="12" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1279" s="12"/>
-      <c r="C1279" s="13" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D1279" s="13" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E1279" s="12" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F1279" s="12"/>
-      <c r="G1279" s="12"/>
-      <c r="H1279" s="12"/>
+      <c r="B1279" s="23"/>
+      <c r="C1279" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1279" s="23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E1279" s="17" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1279" s="17"/>
+      <c r="G1279" s="17"/>
+      <c r="H1279" s="23" t="s">
+        <v>2025</v>
+      </c>
       <c r="I1279" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1279" s="12"/>
-      <c r="K1279" s="23" t="s">
+      <c r="J1279" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K1279" s="23"/>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1280" s="38" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="1280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1280" s="12" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1280" s="12"/>
-      <c r="C1280" s="13" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D1280" s="13" t="s">
-        <v>2080</v>
-      </c>
-      <c r="E1280" s="12" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F1280" s="12"/>
-      <c r="G1280" s="12"/>
-      <c r="H1280" s="12"/>
+      <c r="B1280" s="23"/>
+      <c r="C1280" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1280" s="23" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1280" s="17" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1280" s="17"/>
+      <c r="G1280" s="17"/>
+      <c r="H1280" s="23" t="s">
+        <v>2025</v>
+      </c>
       <c r="I1280" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1280" s="12"/>
-      <c r="K1280" s="23" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1280" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K1280" s="23"/>
+    </row>
+    <row r="1281" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1281" s="12" t="s">
         <v>2026</v>
       </c>
       <c r="B1281" s="12"/>
       <c r="C1281" s="13" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="D1281" s="13" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
       <c r="E1281" s="12" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="F1281" s="12"/>
       <c r="G1281" s="12"/>
@@ -42471,73 +42489,79 @@
       </c>
     </row>
     <row r="1282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1282" s="10" t="s">
-        <v>3754</v>
-      </c>
-      <c r="B1282" s="10"/>
-      <c r="C1282" s="10" t="s">
-        <v>3740</v>
-      </c>
-      <c r="D1282" s="11" t="s">
-        <v>3760</v>
-      </c>
-      <c r="E1282" s="11" t="s">
-        <v>3764</v>
-      </c>
-      <c r="F1282" s="11"/>
-      <c r="G1282" s="11"/>
-      <c r="H1282" s="10"/>
-      <c r="I1282" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1282" s="10"/>
-      <c r="K1282" s="10"/>
-    </row>
-    <row r="1283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1283" s="10" t="s">
-        <v>3754</v>
-      </c>
-      <c r="B1283" s="10"/>
-      <c r="C1283" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1283" s="11" t="s">
-        <v>3763</v>
-      </c>
-      <c r="E1283" s="11" t="s">
-        <v>3767</v>
-      </c>
-      <c r="F1283" s="11"/>
-      <c r="G1283" s="11"/>
-      <c r="H1283" s="10"/>
-      <c r="I1283" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1283" s="10"/>
-      <c r="K1283" s="10"/>
-    </row>
-    <row r="1284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1284" s="10" t="s">
-        <v>3754</v>
-      </c>
-      <c r="B1284" s="10"/>
-      <c r="C1284" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1284" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E1284" s="11" t="s">
-        <v>3765</v>
-      </c>
-      <c r="F1284" s="11"/>
-      <c r="G1284" s="11"/>
-      <c r="H1284" s="10"/>
-      <c r="I1284" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1284" s="10"/>
-      <c r="K1284" s="10"/>
+      <c r="A1282" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1282" s="12"/>
+      <c r="C1282" s="13" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D1282" s="13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1282" s="12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F1282" s="12"/>
+      <c r="G1282" s="12"/>
+      <c r="H1282" s="12"/>
+      <c r="I1282" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1282" s="12"/>
+      <c r="K1282" s="23" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1283" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1283" s="12"/>
+      <c r="C1283" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1283" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E1283" s="12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F1283" s="12"/>
+      <c r="G1283" s="12"/>
+      <c r="H1283" s="12"/>
+      <c r="I1283" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1283" s="12"/>
+      <c r="K1283" s="23" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1284" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1284" s="12"/>
+      <c r="C1284" s="13" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1284" s="13" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E1284" s="12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1284" s="12"/>
+      <c r="G1284" s="12"/>
+      <c r="H1284" s="12"/>
+      <c r="I1284" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1284" s="12"/>
+      <c r="K1284" s="23" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="1285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1285" s="10" t="s">
@@ -42545,13 +42569,13 @@
       </c>
       <c r="B1285" s="10"/>
       <c r="C1285" s="10" t="s">
-        <v>222</v>
+        <v>3740</v>
       </c>
       <c r="D1285" s="11" t="s">
-        <v>3755</v>
+        <v>3760</v>
       </c>
       <c r="E1285" s="11" t="s">
-        <v>3756</v>
+        <v>3764</v>
       </c>
       <c r="F1285" s="11"/>
       <c r="G1285" s="11"/>
@@ -42568,13 +42592,13 @@
       </c>
       <c r="B1286" s="10"/>
       <c r="C1286" s="10" t="s">
-        <v>377</v>
+        <v>268</v>
       </c>
       <c r="D1286" s="11" t="s">
-        <v>3757</v>
+        <v>3763</v>
       </c>
       <c r="E1286" s="11" t="s">
-        <v>3758</v>
+        <v>3767</v>
       </c>
       <c r="F1286" s="11"/>
       <c r="G1286" s="11"/>
@@ -42585,19 +42609,19 @@
       <c r="J1286" s="10"/>
       <c r="K1286" s="10"/>
     </row>
-    <row r="1287" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1287" s="10" t="s">
         <v>3754</v>
       </c>
       <c r="B1287" s="10"/>
       <c r="C1287" s="10" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="D1287" s="11" t="s">
-        <v>3768</v>
+        <v>412</v>
       </c>
       <c r="E1287" s="11" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="F1287" s="11"/>
       <c r="G1287" s="11"/>
@@ -42609,18 +42633,18 @@
       <c r="K1287" s="10"/>
     </row>
     <row r="1288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1288" s="45" t="s">
+      <c r="A1288" s="10" t="s">
         <v>3754</v>
       </c>
       <c r="B1288" s="10"/>
       <c r="C1288" s="10" t="s">
-        <v>845</v>
+        <v>222</v>
       </c>
       <c r="D1288" s="11" t="s">
-        <v>3773</v>
+        <v>3755</v>
       </c>
       <c r="E1288" s="11" t="s">
-        <v>3774</v>
+        <v>3756</v>
       </c>
       <c r="F1288" s="11"/>
       <c r="G1288" s="11"/>
@@ -42632,18 +42656,18 @@
       <c r="K1288" s="10"/>
     </row>
     <row r="1289" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1289" s="25" t="s">
+      <c r="A1289" s="10" t="s">
         <v>3754</v>
       </c>
       <c r="B1289" s="10"/>
       <c r="C1289" s="10" t="s">
-        <v>965</v>
+        <v>377</v>
       </c>
       <c r="D1289" s="11" t="s">
-        <v>966</v>
+        <v>3757</v>
       </c>
       <c r="E1289" s="11" t="s">
-        <v>3777</v>
+        <v>3758</v>
       </c>
       <c r="F1289" s="11"/>
       <c r="G1289" s="11"/>
@@ -42654,19 +42678,19 @@
       <c r="J1289" s="10"/>
       <c r="K1289" s="10"/>
     </row>
-    <row r="1290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1290" s="10" t="s">
         <v>3754</v>
       </c>
       <c r="B1290" s="10"/>
       <c r="C1290" s="10" t="s">
-        <v>847</v>
+        <v>312</v>
       </c>
       <c r="D1290" s="11" t="s">
-        <v>3762</v>
+        <v>3768</v>
       </c>
       <c r="E1290" s="11" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="F1290" s="11"/>
       <c r="G1290" s="11"/>
@@ -42677,19 +42701,19 @@
       <c r="J1290" s="10"/>
       <c r="K1290" s="10"/>
     </row>
-    <row r="1291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1291" s="10" t="s">
+    <row r="1291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1291" s="45" t="s">
         <v>3754</v>
       </c>
       <c r="B1291" s="10"/>
       <c r="C1291" s="10" t="s">
-        <v>75</v>
+        <v>845</v>
       </c>
       <c r="D1291" s="11" t="s">
-        <v>3759</v>
+        <v>3773</v>
       </c>
       <c r="E1291" s="11" t="s">
-        <v>3761</v>
+        <v>3774</v>
       </c>
       <c r="F1291" s="11"/>
       <c r="G1291" s="11"/>
@@ -42701,18 +42725,18 @@
       <c r="K1291" s="10"/>
     </row>
     <row r="1292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1292" s="10" t="s">
+      <c r="A1292" s="25" t="s">
         <v>3754</v>
       </c>
       <c r="B1292" s="10"/>
       <c r="C1292" s="10" t="s">
-        <v>3771</v>
+        <v>965</v>
       </c>
       <c r="D1292" s="11" t="s">
-        <v>3770</v>
+        <v>966</v>
       </c>
       <c r="E1292" s="11" t="s">
-        <v>3772</v>
+        <v>3777</v>
       </c>
       <c r="F1292" s="11"/>
       <c r="G1292" s="11"/>
@@ -42729,13 +42753,13 @@
       </c>
       <c r="B1293" s="10"/>
       <c r="C1293" s="10" t="s">
-        <v>633</v>
+        <v>847</v>
       </c>
       <c r="D1293" s="11" t="s">
-        <v>3775</v>
+        <v>3762</v>
       </c>
       <c r="E1293" s="11" t="s">
-        <v>3776</v>
+        <v>3766</v>
       </c>
       <c r="F1293" s="11"/>
       <c r="G1293" s="11"/>
@@ -42746,19 +42770,19 @@
       <c r="J1293" s="10"/>
       <c r="K1293" s="10"/>
     </row>
-    <row r="1294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1294" s="10" t="s">
-        <v>3746</v>
+        <v>3754</v>
       </c>
       <c r="B1294" s="10"/>
       <c r="C1294" s="10" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="D1294" s="11" t="s">
-        <v>3750</v>
+        <v>3759</v>
       </c>
       <c r="E1294" s="11" t="s">
-        <v>3752</v>
+        <v>3761</v>
       </c>
       <c r="F1294" s="11"/>
       <c r="G1294" s="11"/>
@@ -42771,17 +42795,17 @@
     </row>
     <row r="1295" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1295" s="10" t="s">
-        <v>3746</v>
+        <v>3754</v>
       </c>
       <c r="B1295" s="10"/>
       <c r="C1295" s="10" t="s">
-        <v>450</v>
+        <v>3771</v>
       </c>
       <c r="D1295" s="11" t="s">
-        <v>3748</v>
+        <v>3770</v>
       </c>
       <c r="E1295" s="11" t="s">
-        <v>3753</v>
+        <v>3772</v>
       </c>
       <c r="F1295" s="11"/>
       <c r="G1295" s="11"/>
@@ -42794,17 +42818,17 @@
     </row>
     <row r="1296" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1296" s="10" t="s">
-        <v>3746</v>
+        <v>3754</v>
       </c>
       <c r="B1296" s="10"/>
       <c r="C1296" s="10" t="s">
-        <v>3747</v>
+        <v>633</v>
       </c>
       <c r="D1296" s="11" t="s">
-        <v>3749</v>
+        <v>3775</v>
       </c>
       <c r="E1296" s="11" t="s">
-        <v>3751</v>
+        <v>3776</v>
       </c>
       <c r="F1296" s="11"/>
       <c r="G1296" s="11"/>
@@ -42815,85 +42839,89 @@
       <c r="J1296" s="10"/>
       <c r="K1296" s="10"/>
     </row>
-    <row r="1297" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1297" s="35" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B1297" s="13"/>
-      <c r="C1297" s="13" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D1297" s="13" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E1297" s="12" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F1297" s="12"/>
-      <c r="G1297" s="12"/>
-      <c r="H1297" s="12"/>
-      <c r="I1297" s="13" t="s">
+    <row r="1297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1297" s="10" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1297" s="10"/>
+      <c r="C1297" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1297" s="11" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E1297" s="11" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F1297" s="11"/>
+      <c r="G1297" s="11"/>
+      <c r="H1297" s="10"/>
+      <c r="I1297" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1297" s="13"/>
-      <c r="K1297" s="13"/>
-    </row>
-    <row r="1298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1298" s="35" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B1298" s="13"/>
-      <c r="C1298" s="13" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D1298" s="13" t="s">
-        <v>2090</v>
-      </c>
-      <c r="E1298" s="12"/>
-      <c r="F1298" s="12"/>
-      <c r="G1298" s="12"/>
-      <c r="H1298" s="12"/>
-      <c r="I1298" s="13" t="s">
+      <c r="J1297" s="10"/>
+      <c r="K1297" s="10"/>
+    </row>
+    <row r="1298" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1298" s="10" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1298" s="10"/>
+      <c r="C1298" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1298" s="11" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E1298" s="11" t="s">
+        <v>3753</v>
+      </c>
+      <c r="F1298" s="11"/>
+      <c r="G1298" s="11"/>
+      <c r="H1298" s="10"/>
+      <c r="I1298" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1298" s="13"/>
-      <c r="K1298" s="13"/>
+      <c r="J1298" s="10"/>
+      <c r="K1298" s="10"/>
     </row>
     <row r="1299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1299" s="35" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B1299" s="13"/>
-      <c r="C1299" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1299" s="13" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E1299" s="12" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F1299" s="12"/>
-      <c r="G1299" s="12"/>
-      <c r="H1299" s="12"/>
-      <c r="I1299" s="13" t="s">
+      <c r="A1299" s="10" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1299" s="10"/>
+      <c r="C1299" s="10" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1299" s="11" t="s">
+        <v>3749</v>
+      </c>
+      <c r="E1299" s="11" t="s">
+        <v>3751</v>
+      </c>
+      <c r="F1299" s="11"/>
+      <c r="G1299" s="11"/>
+      <c r="H1299" s="10"/>
+      <c r="I1299" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1299" s="13"/>
-      <c r="K1299" s="13"/>
-    </row>
-    <row r="1300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1300" s="13" t="s">
+      <c r="J1299" s="10"/>
+      <c r="K1299" s="10"/>
+    </row>
+    <row r="1300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1300" s="35" t="s">
         <v>2085</v>
       </c>
       <c r="B1300" s="13"/>
       <c r="C1300" s="13" t="s">
-        <v>1912</v>
+        <v>2086</v>
       </c>
       <c r="D1300" s="13" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E1300" s="12"/>
+        <v>2087</v>
+      </c>
+      <c r="E1300" s="12" t="s">
+        <v>2088</v>
+      </c>
       <c r="F1300" s="12"/>
       <c r="G1300" s="12"/>
       <c r="H1300" s="12"/>
@@ -42903,20 +42931,18 @@
       <c r="J1300" s="13"/>
       <c r="K1300" s="13"/>
     </row>
-    <row r="1301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1301" s="13" t="s">
+    <row r="1301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1301" s="35" t="s">
         <v>2085</v>
       </c>
       <c r="B1301" s="13"/>
       <c r="C1301" s="13" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="D1301" s="13" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E1301" s="12" t="s">
-        <v>2096</v>
-      </c>
+        <v>2090</v>
+      </c>
+      <c r="E1301" s="12"/>
       <c r="F1301" s="12"/>
       <c r="G1301" s="12"/>
       <c r="H1301" s="12"/>
@@ -42927,18 +42953,18 @@
       <c r="K1301" s="13"/>
     </row>
     <row r="1302" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1302" s="13" t="s">
+      <c r="A1302" s="35" t="s">
         <v>2085</v>
       </c>
       <c r="B1302" s="13"/>
       <c r="C1302" s="13" t="s">
-        <v>2097</v>
+        <v>355</v>
       </c>
       <c r="D1302" s="13" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="E1302" s="12" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="F1302" s="12"/>
       <c r="G1302" s="12"/>
@@ -42955,14 +42981,12 @@
       </c>
       <c r="B1303" s="13"/>
       <c r="C1303" s="13" t="s">
-        <v>529</v>
+        <v>1912</v>
       </c>
       <c r="D1303" s="13" t="s">
-        <v>2100</v>
-      </c>
-      <c r="E1303" s="12" t="s">
-        <v>2101</v>
-      </c>
+        <v>2093</v>
+      </c>
+      <c r="E1303" s="12"/>
       <c r="F1303" s="12"/>
       <c r="G1303" s="12"/>
       <c r="H1303" s="12"/>
@@ -42972,19 +42996,19 @@
       <c r="J1303" s="13"/>
       <c r="K1303" s="13"/>
     </row>
-    <row r="1304" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1304" s="13" t="s">
         <v>2085</v>
       </c>
       <c r="B1304" s="13"/>
       <c r="C1304" s="13" t="s">
-        <v>625</v>
+        <v>2094</v>
       </c>
       <c r="D1304" s="13" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="E1304" s="12" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="F1304" s="12"/>
       <c r="G1304" s="12"/>
@@ -43001,13 +43025,13 @@
       </c>
       <c r="B1305" s="13"/>
       <c r="C1305" s="13" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="D1305" s="13" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="E1305" s="12" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="F1305" s="12"/>
       <c r="G1305" s="12"/>
@@ -43018,19 +43042,19 @@
       <c r="J1305" s="13"/>
       <c r="K1305" s="13"/>
     </row>
-    <row r="1306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1306" s="13" t="s">
-        <v>2107</v>
+        <v>2085</v>
       </c>
       <c r="B1306" s="13"/>
       <c r="C1306" s="13" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D1306" s="12" t="s">
-        <v>2110</v>
+        <v>529</v>
+      </c>
+      <c r="D1306" s="13" t="s">
+        <v>2100</v>
       </c>
       <c r="E1306" s="12" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="F1306" s="12"/>
       <c r="G1306" s="12"/>
@@ -43043,17 +43067,17 @@
     </row>
     <row r="1307" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1307" s="13" t="s">
-        <v>2107</v>
+        <v>2085</v>
       </c>
       <c r="B1307" s="13"/>
       <c r="C1307" s="13" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D1307" s="12" t="s">
-        <v>2112</v>
+        <v>625</v>
+      </c>
+      <c r="D1307" s="13" t="s">
+        <v>2102</v>
       </c>
       <c r="E1307" s="12" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
       <c r="F1307" s="12"/>
       <c r="G1307" s="12"/>
@@ -43064,19 +43088,19 @@
       <c r="J1307" s="13"/>
       <c r="K1307" s="13"/>
     </row>
-    <row r="1308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1308" s="13" t="s">
-        <v>2107</v>
+        <v>2085</v>
       </c>
       <c r="B1308" s="13"/>
       <c r="C1308" s="13" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D1308" s="12" t="s">
-        <v>2108</v>
+        <v>2104</v>
+      </c>
+      <c r="D1308" s="13" t="s">
+        <v>2105</v>
       </c>
       <c r="E1308" s="12" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F1308" s="12"/>
       <c r="G1308" s="12"/>
@@ -43087,19 +43111,19 @@
       <c r="J1308" s="13"/>
       <c r="K1308" s="13"/>
     </row>
-    <row r="1309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1309" s="35" t="s">
+    <row r="1309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1309" s="13" t="s">
         <v>2107</v>
       </c>
       <c r="B1309" s="13"/>
       <c r="C1309" s="13" t="s">
-        <v>377</v>
+        <v>2109</v>
       </c>
       <c r="D1309" s="12" t="s">
-        <v>550</v>
+        <v>2110</v>
       </c>
       <c r="E1309" s="12" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="F1309" s="12"/>
       <c r="G1309" s="12"/>
@@ -43110,19 +43134,19 @@
       <c r="J1309" s="13"/>
       <c r="K1309" s="13"/>
     </row>
-    <row r="1310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1310" s="35" t="s">
+    <row r="1310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1310" s="13" t="s">
         <v>2107</v>
       </c>
       <c r="B1310" s="13"/>
       <c r="C1310" s="13" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D1310" s="12" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="E1310" s="12" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="F1310" s="12"/>
       <c r="G1310" s="12"/>
@@ -43134,18 +43158,18 @@
       <c r="K1310" s="13"/>
     </row>
     <row r="1311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1311" s="35" t="s">
+      <c r="A1311" s="13" t="s">
         <v>2107</v>
       </c>
       <c r="B1311" s="13"/>
       <c r="C1311" s="13" t="s">
-        <v>2118</v>
+        <v>1296</v>
       </c>
       <c r="D1311" s="12" t="s">
-        <v>2119</v>
+        <v>2108</v>
       </c>
       <c r="E1311" s="12" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="F1311" s="12"/>
       <c r="G1311" s="12"/>
@@ -43156,19 +43180,19 @@
       <c r="J1311" s="13"/>
       <c r="K1311" s="13"/>
     </row>
-    <row r="1312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1312" s="35" t="s">
         <v>2107</v>
       </c>
       <c r="B1312" s="13"/>
       <c r="C1312" s="13" t="s">
-        <v>2116</v>
+        <v>377</v>
       </c>
       <c r="D1312" s="12" t="s">
-        <v>2117</v>
+        <v>550</v>
       </c>
       <c r="E1312" s="12" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="F1312" s="12"/>
       <c r="G1312" s="12"/>
@@ -43180,17 +43204,86 @@
       <c r="K1312" s="13"/>
     </row>
     <row r="1313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1313" s="10"/>
-      <c r="B1313" s="10"/>
-      <c r="C1313" s="10"/>
-      <c r="D1313" s="11"/>
-      <c r="E1313" s="11"/>
-      <c r="F1313" s="11"/>
-      <c r="G1313" s="11"/>
-      <c r="H1313" s="10"/>
-      <c r="I1313" s="10"/>
-      <c r="J1313" s="10"/>
-      <c r="K1313" s="10"/>
+      <c r="A1313" s="35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1313" s="13"/>
+      <c r="C1313" s="13" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D1313" s="12" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E1313" s="12" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F1313" s="12"/>
+      <c r="G1313" s="12"/>
+      <c r="H1313" s="12"/>
+      <c r="I1313" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1313" s="13"/>
+      <c r="K1313" s="13"/>
+    </row>
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1314" s="35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1314" s="13"/>
+      <c r="C1314" s="13" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D1314" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1314" s="12" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F1314" s="12"/>
+      <c r="G1314" s="12"/>
+      <c r="H1314" s="12"/>
+      <c r="I1314" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1314" s="13"/>
+      <c r="K1314" s="13"/>
+    </row>
+    <row r="1315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1315" s="35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1315" s="13"/>
+      <c r="C1315" s="13" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1315" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1315" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F1315" s="12"/>
+      <c r="G1315" s="12"/>
+      <c r="H1315" s="12"/>
+      <c r="I1315" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1315" s="13"/>
+      <c r="K1315" s="13"/>
+    </row>
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1316" s="10"/>
+      <c r="B1316" s="10"/>
+      <c r="C1316" s="10"/>
+      <c r="D1316" s="11"/>
+      <c r="E1316" s="11"/>
+      <c r="F1316" s="11"/>
+      <c r="G1316" s="11"/>
+      <c r="H1316" s="10"/>
+      <c r="I1316" s="10"/>
+      <c r="J1316" s="10"/>
+      <c r="K1316" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -49443,6 +49536,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD438D9B9ABE14A977C2E01E1E997E9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="238b4f00df057bc2742cc7aff66473ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41b44f4d-acd5-45c0-8ca7-9032ca64d707" xmlns:ns3="bc2bfcf0-0204-42b7-916d-bc08fc5e6372" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfb8db5c6f5549a83cd0326992bdc891" ns2:_="" ns3:_="">
     <xsd:import namespace="41b44f4d-acd5-45c0-8ca7-9032ca64d707"/>
@@ -49645,12 +49744,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB239C-D482-4083-A20F-2310AB45B47F}">
   <ds:schemaRefs>
@@ -49660,6 +49753,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3AA29B-E85A-4662-AF70-E41EEBB4502A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCA9DB-B654-4D97-A1BC-1B4528FD4E25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49676,13 +49778,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3AA29B-E85A-4662-AF70-E41EEBB4502A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>